--- a/data/trans_dic/P70D_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005313448563257129</v>
+        <v>0.004416033859528286</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00441002040186594</v>
+        <v>0.004321025390613064</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04598343398224599</v>
+        <v>0.04680890962057803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02772547022146603</v>
+        <v>0.02700461097161727</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01940073691343419</v>
+        <v>0.01777590265952308</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0317853234107465</v>
+        <v>0.03237335981624287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02848500390290157</v>
+        <v>0.03003198646760982</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07836773337584058</v>
+        <v>0.0820392972815447</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09568384452299854</v>
+        <v>0.09275216638995903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07066903339118748</v>
+        <v>0.0705451115562785</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.05789742595927782</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09150677280743121</v>
+        <v>0.09150677280743123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07295013560015266</v>
+        <v>0.07295013560015268</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02930640923548017</v>
+        <v>0.02837074974642581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04963886129201919</v>
+        <v>0.05504998961099532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04706857133531295</v>
+        <v>0.04812954044648254</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1022787163633906</v>
+        <v>0.09590594565300216</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1458607782913165</v>
+        <v>0.1576208851859267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1042547481015654</v>
+        <v>0.1054160172803088</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0750925918965992</v>
+        <v>0.07509259189659918</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09721125229656766</v>
+        <v>0.09721125229656767</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08526134800964175</v>
+        <v>0.0852613480096417</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03855403312494657</v>
+        <v>0.04003801316536758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05952407198748309</v>
+        <v>0.06143271890572137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05600831560667945</v>
+        <v>0.05604677047054651</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1257870973473449</v>
+        <v>0.1354559031163921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1530845260166717</v>
+        <v>0.1547425742704962</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1218665787361726</v>
+        <v>0.1240955527751661</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.04195512550004223</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.02963321882527831</v>
+        <v>0.0296332188252783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03621291731164821</v>
+        <v>0.0362129173116482</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01653233067793167</v>
+        <v>0.01734697287079468</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01150137310028122</v>
+        <v>0.01131527969005322</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02087285576751996</v>
+        <v>0.01931638320649903</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08322945694211074</v>
+        <v>0.08351721131090721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05898692818067983</v>
+        <v>0.05726347589288868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06075133633356356</v>
+        <v>0.06012051201353196</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06158645623013972</v>
+        <v>0.06723828275115018</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06750229295392263</v>
+        <v>0.07166514623296004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07670019781012702</v>
+        <v>0.07774604037581936</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1597468464769786</v>
+        <v>0.1588677068178759</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1736813116378658</v>
+        <v>0.1787541004057123</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1481947960099329</v>
+        <v>0.1456862468785039</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.01478924247609138</v>
+        <v>0.01478924247609137</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.0229698828061182</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003125081355384938</v>
+        <v>0.003060151368814762</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01294679128774184</v>
+        <v>0.01187406984272155</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01049854340756094</v>
+        <v>0.01014734590927303</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03844262019567625</v>
+        <v>0.03697569274556084</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03875803101268584</v>
+        <v>0.03917019816370088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03258223090615382</v>
+        <v>0.03196344326651931</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03803099975292748</v>
+        <v>0.03803099975292747</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.08586923232740477</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02140721999485659</v>
+        <v>0.02112648375216398</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06079169671118245</v>
+        <v>0.05969348385316203</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04298283794713354</v>
+        <v>0.04357161085446757</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06009382700039184</v>
+        <v>0.05996309556661534</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1170023179210388</v>
+        <v>0.1179540228361156</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0743716867922202</v>
+        <v>0.0764978105273638</v>
       </c>
     </row>
     <row r="28">
@@ -1007,7 +1007,7 @@
         <v>0.0423145061577257</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.04929762596082604</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1063</v>
+        <v>883</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1549</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9199</v>
+        <v>9364</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9741</v>
+        <v>9488</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4904</v>
+        <v>4493</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5510</v>
+        <v>5612</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12138</v>
+        <v>12797</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19808</v>
+        <v>20736</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16587</v>
+        <v>16078</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30113</v>
+        <v>30060</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4346</v>
+        <v>4207</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5972</v>
+        <v>6622</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12643</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15168</v>
+        <v>14223</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17547</v>
+        <v>18962</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28003</v>
+        <v>28315</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8007</v>
+        <v>8315</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10520</v>
+        <v>10857</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21531</v>
+        <v>21545</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>26124</v>
+        <v>28132</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27055</v>
+        <v>27348</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46848</v>
+        <v>47705</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2223</v>
+        <v>2333</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5257</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11193</v>
+        <v>11231</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6923</v>
+        <v>6721</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15300</v>
+        <v>15141</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8286</v>
+        <v>9046</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5835</v>
+        <v>6195</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>16949</v>
+        <v>17180</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21492</v>
+        <v>21373</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15012</v>
+        <v>15451</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32747</v>
+        <v>32193</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1199</v>
+        <v>1174</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4638</v>
+        <v>4254</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7789</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14748</v>
+        <v>14186</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13886</v>
+        <v>14034</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24173</v>
+        <v>23714</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>9635</v>
+        <v>9509</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>18962</v>
+        <v>18619</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>32753</v>
+        <v>33202</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>27047</v>
+        <v>26989</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>36495</v>
+        <v>36792</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>56672</v>
+        <v>58292</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
     </row>
     <row r="40">
